--- a/weapons_melee_table.xlsx
+++ b/weapons_melee_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge\Google Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge.WARWICK\My Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8322F9D4-29E0-4413-9008-458D2CBF462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="1"/>
+    <workbookView xWindow="41700" yWindow="2145" windowWidth="30420" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <r>
       <rPr>
@@ -380,11 +381,35 @@
   <si>
     <t>2D6</t>
   </si>
+  <si>
+    <t>Creature</t>
+  </si>
+  <si>
+    <t>SpecialName</t>
+  </si>
+  <si>
+    <t>SpecialText</t>
+  </si>
+  <si>
+    <t>1d3</t>
+  </si>
+  <si>
+    <t>Dancer in the Darkness</t>
+  </si>
+  <si>
+    <t>The bite of a Dancer in Darkness does damage equal to its damage bonus, or 1D3 in any case. If the bite penetrates armor, the vampire will stay attached and take 1D6 hit points (blood) from the victim—increasing the vampire’s hit points in the process.</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>A victim hit by a Dancer in Darkness’ touch must match their magic points against that of the vampire, whether the touch penetrated armor or not. If the vampire wins the contest, the victim gives 1D4 magic points to the vampire</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
@@ -445,49 +470,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -508,9 +533,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -548,9 +573,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,7 +610,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,7 +645,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -793,26 +818,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="2"/>
+    <col min="1" max="1" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="2"/>
+    <col min="9" max="9" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -828,9 +856,17 @@
       <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -848,7 +884,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -866,7 +902,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -884,7 +920,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -902,7 +938,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -920,7 +956,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -938,7 +974,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -956,7 +992,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -974,7 +1010,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -992,7 +1028,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1010,7 +1046,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +1064,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +1082,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1064,7 +1100,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1082,7 +1118,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -1380,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
@@ -1397,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>59</v>
       </c>
@@ -1414,7 +1450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>58</v>
       </c>
@@ -1431,7 +1467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>49</v>
       </c>
@@ -1448,7 +1484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>56</v>
       </c>
@@ -1465,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>71</v>
       </c>
@@ -1482,7 +1518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>57</v>
       </c>
@@ -1499,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>50</v>
       </c>
@@ -1516,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>70</v>
       </c>
@@ -1533,7 +1569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>73</v>
       </c>
@@ -1548,6 +1584,52 @@
       </c>
       <c r="E42" s="6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="6">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="6">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="6">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="6">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1557,10 +1639,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
